--- a/Part orders/Second order list.xlsx
+++ b/Part orders/Second order list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/jeroen_veen_han_nl/Documents/Research/Effluent/07 Studentprojects/Casper Tak/Part orders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/jeroen_veen_han_nl/Documents/Research/Effluent/07 Studentprojects/Casper Tak/WaterQualityMonitor/Part orders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{9AC02C02-400D-4325-BBFB-7AACCCAF3F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{907BE536-852B-48AA-B2E0-CCA2BC354A9D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{9AC02C02-400D-4325-BBFB-7AACCCAF3F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{474306C1-6DAE-4E65-9C8F-540EAFB4A27E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20250" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,8 +317,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:AGG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="A22:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,12 +955,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:865" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:865" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1871,7 +1871,7 @@
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2">
